--- a/All_site_GPS_points.xlsx
+++ b/All_site_GPS_points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate.sharepoint.com/sites/AWQP_Sharepoint/Shared Documents/Water_Quality_Project/Research/Edge of Field Monitoring and Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jake\Documents\GitHub\ALS-Data-Cleaning-Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="567" documentId="8_{2B8A496B-E435-4D16-AF2C-01B9F0EC7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{852B318A-5E59-4468-80B7-544029520EBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6736290D-A1E2-4EB2-B0FC-40CA77F1AE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="latlong" sheetId="3" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="69">
   <si>
     <t>location.name</t>
   </si>
@@ -230,6 +230,48 @@
   </si>
   <si>
     <t>Stagecoach ISCO</t>
+  </si>
+  <si>
+    <t>Fruita Chicken</t>
+  </si>
+  <si>
+    <t>Fruita Fertilizer</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>AVRC Cowpea</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -311,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -323,6 +365,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,16 +746,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B58AD3-5679-4AC1-8F8E-87B3470B571D}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -717,7 +765,7 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -762,7 +810,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -779,7 +827,7 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -796,7 +844,7 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
@@ -813,7 +861,7 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
@@ -886,7 +934,7 @@
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -903,7 +951,7 @@
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
@@ -920,7 +968,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
@@ -937,7 +985,7 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
@@ -954,7 +1002,7 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" t="s">
@@ -971,7 +1019,7 @@
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C17" t="s">
@@ -988,7 +1036,7 @@
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C18" t="s">
@@ -1005,7 +1053,7 @@
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C19" t="s">
@@ -1022,7 +1070,7 @@
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C20" t="s">
@@ -1039,7 +1087,7 @@
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C21" t="s">
@@ -1056,7 +1104,7 @@
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="s">
@@ -1143,7 +1191,7 @@
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
@@ -1160,7 +1208,7 @@
       <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
@@ -1177,7 +1225,7 @@
       <c r="A30" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
@@ -1194,7 +1242,7 @@
       <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
@@ -1211,7 +1259,7 @@
       <c r="A32" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
@@ -1228,7 +1276,7 @@
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
@@ -1245,7 +1293,7 @@
       <c r="A34" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C34" t="s">
@@ -1304,7 +1352,7 @@
       <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
@@ -1321,7 +1369,7 @@
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
@@ -1338,7 +1386,7 @@
       <c r="A40" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
@@ -1355,7 +1403,7 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
@@ -1372,7 +1420,7 @@
       <c r="A42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C42" t="s">
@@ -1431,7 +1479,7 @@
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
@@ -1448,7 +1496,7 @@
       <c r="A47" t="s">
         <v>44</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -1465,7 +1513,6 @@
       <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6"/>
       <c r="C48" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1561,6 @@
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="6"/>
       <c r="C51" t="s">
         <v>7</v>
       </c>
@@ -1593,6 +1639,218 @@
       </c>
       <c r="E56">
         <v>39.2223445805922</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57">
+        <v>-108.673517</v>
+      </c>
+      <c r="E57">
+        <v>39.167937999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>-108.677814</v>
+      </c>
+      <c r="E58">
+        <v>39.165480000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>-108.67783</v>
+      </c>
+      <c r="E59">
+        <v>39.164431999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>-108.67325</v>
+      </c>
+      <c r="E60">
+        <v>39.193080000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>-108.68052</v>
+      </c>
+      <c r="E61">
+        <v>39.18974</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>-108.68052</v>
+      </c>
+      <c r="E62">
+        <v>39.18974</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>-108.68052</v>
+      </c>
+      <c r="E63">
+        <v>39.18974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>-108.68052</v>
+      </c>
+      <c r="E64">
+        <v>39.18974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>68</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1863,15 +2121,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
@@ -1887,6 +2136,15 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1909,14 +2167,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4EC30A-113E-4E08-BA62-215EF4D5314B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BCCF8A9-470D-40DE-BE00-4144F08D6523}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1925,4 +2175,12 @@
     <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B4EC30A-113E-4E08-BA62-215EF4D5314B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>